--- a/pocket-reform-headphones/pocket-reform-headphones.xlsx
+++ b/pocket-reform-headphones/pocket-reform-headphones.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
+    <t xml:space="preserve">DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
@@ -43,15 +49,9 @@
     <t xml:space="preserve">C2, C3, C4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">DNP</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -61,7 +61,13 @@
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-143</t>
   </si>
   <si>
-    <t xml:space="preserve">Littelfuse</t>
+    <t xml:space="preserve">C3040626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Littelfuse / TECH PUBLIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP0503BAHTG</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
@@ -73,6 +79,9 @@
     <t xml:space="preserve">Connector_JST:JST_SH_SM05B-SRSS-TB_1x05-1MP_P1.00mm_Horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">C136657</t>
+  </si>
+  <si>
     <t xml:space="preserve">JST</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t xml:space="preserve">Connector_JST:JST_SH_SM02B-SRSS-TB_1x02-1MP_P1.00mm_Horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">C160402</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM02B-SRSS-TB(LF)(SN)</t>
   </si>
   <si>
@@ -118,10 +130,13 @@
     <t xml:space="preserve">Generic</t>
   </si>
   <si>
+    <t xml:space="preserve">47k 0603</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2, R3, R4</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Ohm 0603</t>
+    <t xml:space="preserve">0Ohms 0603</t>
   </si>
   <si>
     <t xml:space="preserve">SW1</t>
@@ -133,10 +148,13 @@
     <t xml:space="preserve">Button_Switch_SMD:SW_SPDT_PCM12</t>
   </si>
   <si>
-    <t xml:space="preserve">Switchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McSwitchFace</t>
+    <t xml:space="preserve">C319019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK-3296S-01-L3</t>
   </si>
 </sst>
 </file>
@@ -182,33 +200,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -237,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,36 +243,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -295,210 +268,236 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="XFD1" s="5"/>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="XFD2" s="9"/>
-    </row>
-    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD3" s="9"/>
-    </row>
-    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="G3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="XFD4" s="9"/>
-    </row>
-    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="G4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="H4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="XFD5" s="9"/>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="G5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="H5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="XFD6" s="9"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="XFD7" s="9"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>220</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="XFD8" s="9"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="G8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="H8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="XFD9" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
